--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/8 PRUEBA DE COSTOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/8 PRUEBA DE COSTOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785ACCD4-BB1B-421E-B8CC-BB4A00E80551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,12 +52,6 @@
     <t>F)</t>
   </si>
   <si>
-    <t xml:space="preserve">            Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Procedimiento de Auditoría</t>
   </si>
   <si>
@@ -132,9 +121,6 @@
     <t xml:space="preserve"> 0.55 cada una</t>
   </si>
   <si>
-    <t xml:space="preserve">                                              Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>Conclusión:</t>
   </si>
   <si>
@@ -153,19 +139,28 @@
     <t xml:space="preserve">                                                                                 Auditor </t>
   </si>
   <si>
-    <t xml:space="preserve">                                       PRUEBA VARIACIONES DE COSTOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                 Supervisor</t>
   </si>
   <si>
     <t>E-7</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA VARIACIONES DE COSTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -456,6 +451,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +495,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02AD85C-2D12-48C8-A1C7-DFD27AA512FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +550,7 @@
         <xdr:cNvPr id="5" name="Conector recto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D784A819-57DA-4AB7-B47F-C8DDA9871868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -604,7 +605,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CCC011-B0C1-444B-BD63-2BDF7368DD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,7 +670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1014,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1029,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1060,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -1071,9 +1078,12 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="H5" s="16"/>
       <c r="I5" s="2" t="s">
         <v>2</v>
@@ -1081,9 +1091,12 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="H6" s="17"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
@@ -1091,10 +1104,12 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="C7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="H7" s="18"/>
       <c r="I7" s="2" t="s">
         <v>2</v>
@@ -1102,114 +1117,116 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18"/>
+      <c r="C8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="K8" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="F11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="H13" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1279,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" s="8"/>
       <c r="I34" s="27"/>
@@ -1280,6 +1297,12 @@
       <c r="R34" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
